--- a/src/main/resources/questions/part3_questions.xlsx
+++ b/src/main/resources/questions/part3_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justdoit/Documents/오픽 프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7542AF6E-A66A-4944-BE9B-C3CCA8E498BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230E866-509C-094E-83E0-A1D655B54AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="900" windowWidth="29080" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -54,12 +54,5037 @@
   <si>
     <t>What’s the best thing about living with your family?</t>
   </si>
+  <si>
+    <r>
+      <t>학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기숙사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>지금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확보하나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>How do you secure personal time in your current living space?</t>
+  </si>
+  <si>
+    <r>
+      <t>친구나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>룸메이트와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주택이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아파트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>독립해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그것을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결했는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tell me about a problem you encountered living alone and how you solved it.</t>
+  </si>
+  <si>
+    <r>
+      <t>가족</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배우자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자녀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기타</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가족</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주택이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아파트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>기숙사나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공동생활</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타인과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조율하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살았던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Describe a situation where you had to adjust to living with others in a shared space.</t>
+  </si>
+  <si>
+    <r>
+      <t>군대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>끼친</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain how your current living arrangement has impacted your lifestyle.</t>
+  </si>
+  <si>
+    <r>
+      <t>개인주택이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아파트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홀로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마음에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What do you like most about your current home?</t>
+  </si>
+  <si>
+    <r>
+      <t>기숙사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>막사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불편했던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇이었나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What was inconvenient about living in a dormitory/barracks?</t>
+  </si>
+  <si>
+    <r>
+      <t>가족과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>갈등을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결했는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How did you resolve a conflict that occurred while living with family?</t>
+  </si>
+  <si>
+    <r>
+      <t>거주지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주변에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장소는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어디인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Where do you often go around your residence?</t>
+  </si>
+  <si>
+    <r>
+      <t>룸메이트와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좋은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추억이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you have any good memories from living with a roommate?</t>
+  </si>
+  <si>
+    <r>
+      <t>기숙사나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>군대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문화적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극복한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tell me about an experience where you overcame cultural differences in a dorm or military setting.</t>
+  </si>
+  <si>
+    <r>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람들과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분담한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Have you ever divided responsibilities with the people you live with?</t>
+  </si>
+  <si>
+    <r>
+      <t>룸메이트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가족과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나눌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>힘들었던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있었나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Was there a difficulty in sharing space with a roommate or family?</t>
+  </si>
+  <si>
+    <r>
+      <t>집에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어디인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>What part of your home do you use most often, and why?</t>
+  </si>
+  <si>
+    <r>
+      <t>가족과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함께</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책임감을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느꼈던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순간이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Describe a moment when you felt a strong sense of responsibility while living with your family.</t>
+  </si>
+  <si>
+    <r>
+      <t>혼자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>살면서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변화는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇이었나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What was the biggest change after you started living alone?</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주지에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>불편한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What is the most inconvenient thing about your current residence?</t>
+  </si>
+  <si>
+    <r>
+      <t>거주지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중요하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What was the most important factor when choosing your current residence?</t>
+  </si>
+  <si>
+    <r>
+      <t>현재의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주지가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삶의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루틴에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주었는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>How has your current living situation affected your lifestyle or routine?</t>
+  </si>
+  <si>
+    <r>
+      <t>주변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이웃들과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교류한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험이었는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Have you interacted with neighbors around your home? What was the experience like?</t>
+  </si>
+  <si>
+    <r>
+      <t>거주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경험이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형성이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가치관에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사례가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구체적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Explain how your living experience shaped your personality or values with a specific example.</t>
+  </si>
+  <si>
+    <r>
+      <t>룸메이트나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가족과의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일상적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대화에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얻은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교훈이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Have you learned anything meaningful from everyday conversations with those you live with?</t>
+  </si>
+  <si>
+    <r>
+      <t>주거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환경이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스트레스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주었나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>How has your living environment affected your stress management?</t>
+  </si>
+  <si>
+    <r>
+      <t>공용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지키는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인만의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Do you have any personal rules for using shared spaces?</t>
+  </si>
+  <si>
+    <r>
+      <t>집에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편안하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느껴지는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간대는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>언제인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이유는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무엇인가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>What time of day do you feel most comfortable at home, and why?</t>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주지에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느꼈던</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사회적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거리감이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>외로움에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이야기해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tell me about a time you felt socially distant or lonely in your current living place.</t>
+  </si>
+  <si>
+    <r>
+      <t>기숙사나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생활에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규칙을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어긴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마주친</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떻게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대처했나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>How did you deal with someone breaking rules in a shared living situation?</t>
+  </si>
+  <si>
+    <r>
+      <t>자신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타인과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교하며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>느낀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감정이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이야기해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple SD Gothic Neo"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Share your thoughts or feelings from comparing your living situation with others.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +5099,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,11 +5149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,17 +5460,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,6 +5525,1706 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="3">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="3">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="3">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="3">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="3">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="3">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="3">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="3">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="3">
+        <v>4</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="3">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="3">
+        <v>6</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="3">
+        <v>5</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="3">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="3">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3">
+        <v>5</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="3">
+        <v>4</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="3">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="3">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="3">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C89" s="3">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="3">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="3">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="3">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="3">
+        <v>5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="3">
+        <v>4</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" s="3">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="3">
+        <v>4</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="3">
+        <v>4</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="3">
+        <v>5</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" s="3">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="3">
+        <v>5</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
